--- a/STL10/STL10Attackmodels.xlsx
+++ b/STL10/STL10Attackmodels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omars\OneDrive\Desktop\Research\Federated Learning\Implementations\time series\LSTM-MI\LSTM-MI\STL10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D66B1-507E-4B62-8E45-C88841AF4035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D2D97D-F4FE-4D4C-8B06-B619AA503FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{738F4FB1-DC9A-4149-A7D1-090D4C02DFBA}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA41839-586D-4771-9907-16622E0E2EB1}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,19 +2506,19 @@
         <v>20</v>
       </c>
       <c r="K26" s="1">
-        <v>0.64383012056350697</v>
+        <v>0.72546875476837103</v>
       </c>
       <c r="L26" s="1">
-        <v>0.58931088813334398</v>
+        <v>0.67347920173118503</v>
       </c>
       <c r="M26" s="1">
-        <v>0.949051816239316</v>
+        <v>0.87531250000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>0.33860844017093999</v>
+        <v>0.57562500000000005</v>
       </c>
       <c r="O26" s="1">
-        <v>0.72711925103596398</v>
+        <v>0.76124473433890405</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>25</v>
@@ -2530,19 +2530,19 @@
         <v>20</v>
       </c>
       <c r="S26" s="1">
-        <v>0.62833869457244795</v>
+        <v>0.72984373569488503</v>
       </c>
       <c r="T26" s="1">
-        <v>0.57684926029588102</v>
+        <v>0.68031380240254902</v>
       </c>
       <c r="U26" s="1">
-        <v>0.96334134615384603</v>
+        <v>0.8671875</v>
       </c>
       <c r="V26" s="1">
-        <v>0.29333600427350398</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>0.72160256089631303</v>
+        <v>0.76246737189174296</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>25</v>
@@ -2554,19 +2554,19 @@
         <v>20</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.60209667682647705</v>
+        <v>0.63062500953674305</v>
       </c>
       <c r="AB26" s="1">
-        <v>0.55973122900226502</v>
+        <v>0.64364261168384795</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.95673076923076905</v>
+        <v>0.58531250000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.24746260683760599</v>
+        <v>0.67593749999999997</v>
       </c>
       <c r="AE26" s="1">
-        <v>0.70626509587420505</v>
+        <v>0.61309328968903398</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -2601,19 +2601,19 @@
         <v>19</v>
       </c>
       <c r="K27" s="1">
-        <v>0.64072513580322199</v>
+        <v>0.74406248331069902</v>
       </c>
       <c r="L27" s="1">
-        <v>0.587970113119338</v>
+        <v>0.67248233215547704</v>
       </c>
       <c r="M27" s="1">
-        <v>0.94057158119658102</v>
+        <v>0.95156249999999998</v>
       </c>
       <c r="N27" s="1">
-        <v>0.34087873931623902</v>
+        <v>0.53656250000000005</v>
       </c>
       <c r="O27" s="1">
-        <v>0.72360208563429396</v>
+        <v>0.78804347826086896</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>25</v>
@@ -2625,19 +2625,19 @@
         <v>19</v>
       </c>
       <c r="S27" s="1">
-        <v>0.63434827327728205</v>
+        <v>0.73843747377395597</v>
       </c>
       <c r="T27" s="1">
-        <v>0.58042852574352399</v>
+        <v>0.66493731085170704</v>
       </c>
       <c r="U27" s="1">
-        <v>0.96955128205128205</v>
+        <v>0.96125000000000005</v>
       </c>
       <c r="V27" s="1">
-        <v>0.29914529914529903</v>
+        <v>0.515625</v>
       </c>
       <c r="W27" s="1">
-        <v>0.72614522904580903</v>
+        <v>0.78609762330692501</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>25</v>
@@ -2649,19 +2649,19 @@
         <v>19</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.60286456346511796</v>
+        <v>0.69656252622604298</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.5597764929572</v>
+        <v>0.64823609226594303</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.96327457264957195</v>
+        <v>0.59718749999999998</v>
       </c>
       <c r="AD27" s="1">
-        <v>0.24245459401709399</v>
+        <v>0.67593749999999997</v>
       </c>
       <c r="AE27" s="1">
-        <v>0.70807666822097304</v>
+        <v>0.70166558230310705</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -2814,19 +2814,19 @@
         <v>20</v>
       </c>
       <c r="K30" s="1">
-        <v>0.65064102411270097</v>
+        <v>0.73374998569488503</v>
       </c>
       <c r="L30" s="1">
-        <v>0.59598366235534295</v>
+        <v>0.68588469184890599</v>
       </c>
       <c r="M30" s="1">
-        <v>0.93536324786324698</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="N30" s="1">
-        <v>0.36591880341880301</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="O30" s="1">
-        <v>0.72806652806652805</v>
+        <v>0.764119601328903</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>25</v>
@@ -2838,19 +2838,19 @@
         <v>20</v>
       </c>
       <c r="S30" s="1">
-        <v>0.62967413663864102</v>
+        <v>0.72984373569488503</v>
       </c>
       <c r="T30" s="1">
-        <v>0.57694136291600595</v>
+        <v>0.68138101109741001</v>
       </c>
       <c r="U30" s="1">
-        <v>0.97235576923076905</v>
+        <v>0.86343749999999997</v>
       </c>
       <c r="V30" s="1">
-        <v>0.28699252136752101</v>
+        <v>0.59624999999999995</v>
       </c>
       <c r="W30" s="1">
-        <v>0.72418937736224398</v>
+        <v>0.76168159889731202</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>25</v>
@@ -2862,19 +2862,19 @@
         <v>20</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.60386615991592396</v>
+        <v>0.63890624046325595</v>
       </c>
       <c r="AB30" s="1">
-        <v>0.56093548007991501</v>
+        <v>0.63655913978494605</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.95612980769230704</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.25160256410256399</v>
+        <v>0.63031250000000005</v>
       </c>
       <c r="AE30" s="1">
-        <v>0.70705873638989603</v>
+        <v>0.641982958946553</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
@@ -2909,19 +2909,19 @@
         <v>19</v>
       </c>
       <c r="K31" s="1">
-        <v>0.64232772588729803</v>
+        <v>0.72531247138976995</v>
       </c>
       <c r="L31" s="1">
-        <v>0.595024742543801</v>
+        <v>0.67432301740812295</v>
       </c>
       <c r="M31" s="1">
-        <v>0.89122596153846101</v>
+        <v>0.87156250000000002</v>
       </c>
       <c r="N31" s="1">
-        <v>0.393429487179487</v>
+        <v>0.57906250000000004</v>
       </c>
       <c r="O31" s="1">
-        <v>0.713609752185419</v>
+        <v>0.76035986913849496</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>25</v>
@@ -2933,19 +2933,19 @@
         <v>19</v>
       </c>
       <c r="S31" s="1">
-        <v>0.63291263580322199</v>
+        <v>0.72687500715255704</v>
       </c>
       <c r="T31" s="1">
-        <v>0.57835688698185195</v>
+        <v>0.674184261036468</v>
       </c>
       <c r="U31" s="1">
-        <v>0.98103632478632397</v>
+        <v>0.87812500000000004</v>
       </c>
       <c r="V31" s="1">
-        <v>0.28478899572649502</v>
+        <v>0.57562500000000005</v>
       </c>
       <c r="W31" s="1">
-        <v>0.72770499517075704</v>
+        <v>0.76275787187839295</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>25</v>
@@ -2957,19 +2957,19 @@
         <v>19</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.60820645093917802</v>
+        <v>0.68999998569488497</v>
       </c>
       <c r="AB31" s="1">
-        <v>0.56280277487113906</v>
+        <v>0.64213197969543101</v>
       </c>
       <c r="AC31" s="1">
-        <v>0.969684829059829</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="AD31" s="1">
-        <v>0.246728098290598</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="AE31" s="1">
-        <v>0.71222933372569197</v>
+        <v>0.697279596977329</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
@@ -3122,19 +3122,19 @@
         <v>20</v>
       </c>
       <c r="K34" s="1">
-        <v>0.60803955793380704</v>
+        <v>0.76390624046325595</v>
       </c>
       <c r="L34" s="1">
-        <v>0.57156758669497498</v>
+        <v>0.71526892684170196</v>
       </c>
       <c r="M34" s="1">
-        <v>0.86284722222222199</v>
+        <v>0.87687499999999996</v>
       </c>
       <c r="N34" s="1">
-        <v>0.35323183760683702</v>
+        <v>0.65093749999999995</v>
       </c>
       <c r="O34" s="1">
-        <v>0.68763303533418396</v>
+        <v>0.75787027937666696</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>25</v>
@@ -3146,19 +3146,19 @@
         <v>20</v>
       </c>
       <c r="S34" s="1">
-        <v>0.60894095897674505</v>
+        <v>0.76390624046325595</v>
       </c>
       <c r="T34" s="1">
-        <v>0.570114744939619</v>
+        <v>0.71526892684170196</v>
       </c>
       <c r="U34" s="1">
-        <v>0.88581730769230704</v>
+        <v>0.87687499999999996</v>
       </c>
       <c r="V34" s="1">
-        <v>0.33206463675213599</v>
+        <v>0.65093749999999995</v>
       </c>
       <c r="W34" s="1">
-        <v>0.69373774349588102</v>
+        <v>0.78787027937666698</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>25</v>
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.57922679185867298</v>
+        <v>0.66546875238418501</v>
       </c>
       <c r="AB34" s="1">
         <v>0.55226181561908105</v>
@@ -3182,7 +3182,7 @@
         <v>0.321247329059829</v>
       </c>
       <c r="AE34" s="1">
-        <v>0.66551660075904295</v>
+        <v>0.69849316997605904</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -3217,19 +3217,19 @@
         <v>19</v>
       </c>
       <c r="K35" s="1">
-        <v>0.62937366962432795</v>
+        <v>0.71171872854232698</v>
       </c>
       <c r="L35" s="1">
-        <v>0.57617456261057598</v>
+        <v>0.71325518485121697</v>
       </c>
       <c r="M35" s="1">
-        <v>0.97856570512820495</v>
+        <v>0.74156250000000001</v>
       </c>
       <c r="N35" s="1">
-        <v>0.28018162393162299</v>
+        <v>0.70187500000000003</v>
       </c>
       <c r="O35" s="1">
-        <v>0.72529756749399898</v>
+        <v>0.70713344568714498</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>25</v>
@@ -3241,19 +3241,19 @@
         <v>19</v>
       </c>
       <c r="S35" s="1">
-        <v>0.62349760532379095</v>
+        <v>0.70171872854232697</v>
       </c>
       <c r="T35" s="1">
-        <v>0.57191181616703601</v>
+        <v>0.71325518485121697</v>
       </c>
       <c r="U35" s="1">
-        <v>0.98217147435897401</v>
+        <v>0.74156250000000001</v>
       </c>
       <c r="V35" s="1">
-        <v>0.26482371794871701</v>
+        <v>0.70187500000000003</v>
       </c>
       <c r="W35" s="1">
-        <v>0.72288978990047903</v>
+        <v>0.727133445687145</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>25</v>
@@ -3265,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.58807426691055298</v>
+        <v>0.65234375</v>
       </c>
       <c r="AB35" s="1">
         <v>0.54984506084196205</v>
@@ -3277,7 +3277,7 @@
         <v>0.20459401709401701</v>
       </c>
       <c r="AE35" s="1">
-        <v>0.70225396978618604</v>
+        <v>0.67361009241601799</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -3454,19 +3454,19 @@
         <v>20</v>
       </c>
       <c r="S38" s="1">
-        <v>0.66743457317352295</v>
+        <v>0.81015622615814198</v>
       </c>
       <c r="T38" s="1">
-        <v>0.60055339455427603</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="U38" s="1">
-        <v>1</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="V38" s="1">
-        <v>0.33486912393162299</v>
+        <v>0.6278125</v>
       </c>
       <c r="W38" s="1">
-        <v>0.75043219001327799</v>
+        <v>0.83943438615039001</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>25</v>
@@ -3478,19 +3478,19 @@
         <v>20</v>
       </c>
       <c r="AA38" s="1">
-        <v>0.64950585365295399</v>
+        <v>0.63062500953674305</v>
       </c>
       <c r="AB38" s="1">
-        <v>0.58790043969849204</v>
+        <v>0.64364261168384795</v>
       </c>
       <c r="AC38" s="1">
-        <v>0.99993322649572602</v>
+        <v>0.58531250000000001</v>
       </c>
       <c r="AD38" s="1">
-        <v>0.29907852564102499</v>
+        <v>0.67593749999999997</v>
       </c>
       <c r="AE38" s="1">
-        <v>0.740456882911392</v>
+        <v>0.61309328968903398</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -3549,19 +3549,19 @@
         <v>19</v>
       </c>
       <c r="S39" s="1">
-        <v>0.66760146617889404</v>
+        <v>0.808125019073486</v>
       </c>
       <c r="T39" s="1">
-        <v>0.60090046631291205</v>
+        <v>0.72317790855590702</v>
       </c>
       <c r="U39" s="1">
-        <v>0.998130341880341</v>
+        <v>0.99843749999999998</v>
       </c>
       <c r="V39" s="1">
-        <v>0.33707264957264899</v>
+        <v>0.61781249999999999</v>
       </c>
       <c r="W39" s="1">
-        <v>0.75017564990464702</v>
+        <v>0.838802835389866</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>25</v>
@@ -3573,19 +3573,19 @@
         <v>19</v>
       </c>
       <c r="AA39" s="1">
-        <v>0.63785392045974698</v>
+        <v>0.77656252622604305</v>
       </c>
       <c r="AB39" s="1">
-        <v>0.58044655730039296</v>
+        <v>0.64823609226594303</v>
       </c>
       <c r="AC39" s="1">
-        <v>0.99465811965811901</v>
+        <v>0.59718749999999998</v>
       </c>
       <c r="AD39" s="1">
-        <v>0.28104967948717902</v>
+        <v>0.67593749999999997</v>
       </c>
       <c r="AE39" s="1">
-        <v>0.73308890474667099</v>
+        <v>0.76166558230318704</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -3762,19 +3762,19 @@
         <v>20</v>
       </c>
       <c r="S42" s="1">
-        <v>0.67504674196243197</v>
+        <v>0.80624997615814198</v>
       </c>
       <c r="T42" s="1">
-        <v>0.60609494516168105</v>
+        <v>0.72706209453197401</v>
       </c>
       <c r="U42" s="1">
-        <v>1</v>
+        <v>0.98062499999999997</v>
       </c>
       <c r="V42" s="1">
-        <v>0.35009348290598202</v>
+        <v>0.63187499999999996</v>
       </c>
       <c r="W42" s="1">
-        <v>0.75474360589643397</v>
+        <v>0.83501862692921702</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>25</v>
@@ -3786,19 +3786,19 @@
         <v>20</v>
       </c>
       <c r="AA42" s="1">
-        <v>0.6640625</v>
+        <v>0.63890624046325595</v>
       </c>
       <c r="AB42" s="1">
-        <v>0.59813084112149495</v>
+        <v>0.63655913978494605</v>
       </c>
       <c r="AC42" s="1">
-        <v>1</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="AD42" s="1">
-        <v>0.328125</v>
+        <v>0.63031250000000005</v>
       </c>
       <c r="AE42" s="1">
-        <v>0.74853801169590595</v>
+        <v>0.641982958946553</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
@@ -3857,19 +3857,19 @@
         <v>19</v>
       </c>
       <c r="S43" s="1">
-        <v>0.664029121398925</v>
+        <v>0.79625002622604302</v>
       </c>
       <c r="T43" s="1">
-        <v>0.60053202373644299</v>
+        <v>0.73666978484565004</v>
       </c>
       <c r="U43" s="1">
-        <v>0.97983440170940095</v>
+        <v>0.984375</v>
       </c>
       <c r="V43" s="1">
-        <v>0.34822382478632402</v>
+        <v>0.64812499999999995</v>
       </c>
       <c r="W43" s="1">
-        <v>0.74466519499632</v>
+        <v>0.82269662921348297</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>25</v>
@@ -3881,19 +3881,19 @@
         <v>19</v>
       </c>
       <c r="AA43" s="1">
-        <v>0.62513357400894098</v>
+        <v>0.76999998569488504</v>
       </c>
       <c r="AB43" s="1">
-        <v>0.57427076727964399</v>
+        <v>0.64213197969543101</v>
       </c>
       <c r="AC43" s="1">
-        <v>0.96754807692307598</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="AD43" s="1">
-        <v>0.28271901709401698</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="AE43" s="1">
-        <v>0.72075208913649003</v>
+        <v>0.74279596977328999</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
@@ -4070,19 +4070,19 @@
         <v>20</v>
       </c>
       <c r="S46" s="1">
-        <v>0.65484774112701405</v>
+        <v>0.77671873569488503</v>
       </c>
       <c r="T46" s="1">
-        <v>0.59362887596899205</v>
+        <v>0.77491462278795398</v>
       </c>
       <c r="U46" s="1">
-        <v>0.98177083333333304</v>
+        <v>0.78</v>
       </c>
       <c r="V46" s="1">
-        <v>0.32792467948717902</v>
+        <v>0.7734375</v>
       </c>
       <c r="W46" s="1">
-        <v>0.73988526570048296</v>
+        <v>0.77744899548356905</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>25</v>
@@ -4165,19 +4165,19 @@
         <v>19</v>
       </c>
       <c r="S47" s="1">
-        <v>0.65635013580322199</v>
+        <v>0.75140625238418501</v>
       </c>
       <c r="T47" s="1">
-        <v>0.59422156050058295</v>
+        <v>0.76027175671303704</v>
       </c>
       <c r="U47" s="1">
-        <v>0.98604433760683696</v>
+        <v>0.734375</v>
       </c>
       <c r="V47" s="1">
-        <v>0.32665598290598202</v>
+        <v>0.7684375</v>
       </c>
       <c r="W47" s="1">
-        <v>0.74155723504155402</v>
+        <v>0.74709903036083203</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>25</v>
@@ -4189,7 +4189,7 @@
         <v>19</v>
       </c>
       <c r="AA47" s="1">
-        <v>0.61651974916458097</v>
+        <v>0.72651974916458095</v>
       </c>
       <c r="AB47" s="1">
         <v>0.56840991061627699</v>
